--- a/kl-main/src/main/resources/static/Temp/工艺单元_设备信息导入模版.xlsx
+++ b/kl-main/src/main/resources/static/Temp/工艺单元_设备信息导入模版.xlsx
@@ -123,10 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -423,36 +424,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="6" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -482,6 +484,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -495,32 +507,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="12.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -547,6 +561,18 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
